--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 VM.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 VM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
   <si>
     <t>Course</t>
   </si>
@@ -406,9 +406,48 @@
     <t>15.69%</t>
   </si>
   <si>
+    <t>VLCS-931</t>
+  </si>
+  <si>
+    <t>ROUSSEL A</t>
+  </si>
+  <si>
+    <t>41.46%</t>
+  </si>
+  <si>
+    <t>51.22%</t>
+  </si>
+  <si>
+    <t>7.32%</t>
+  </si>
+  <si>
+    <t>VLCS-932</t>
+  </si>
+  <si>
+    <t>JONES M</t>
+  </si>
+  <si>
+    <t>88.24%</t>
+  </si>
+  <si>
+    <t>11.76%</t>
+  </si>
+  <si>
     <t>VLCS-948</t>
   </si>
   <si>
+    <t>WASHBURN K</t>
+  </si>
+  <si>
+    <t>93.94%</t>
+  </si>
+  <si>
+    <t>6.06%</t>
+  </si>
+  <si>
+    <t>MARTIN M</t>
+  </si>
+  <si>
     <t>HARDY J</t>
   </si>
   <si>
@@ -430,6 +469,9 @@
     <t>DABAREINER R</t>
   </si>
   <si>
+    <t>ARNOLD C</t>
+  </si>
+  <si>
     <t>VLCS-953</t>
   </si>
   <si>
@@ -565,6 +607,15 @@
     <t>HOPPES S</t>
   </si>
   <si>
+    <t>BEAVER B</t>
+  </si>
+  <si>
+    <t>96.08%</t>
+  </si>
+  <si>
+    <t>3.92%</t>
+  </si>
+  <si>
     <t>ZORAN D</t>
   </si>
   <si>
@@ -577,6 +628,24 @@
     <t>BARTON C</t>
   </si>
   <si>
+    <t>78.31%</t>
+  </si>
+  <si>
+    <t>21.69%</t>
+  </si>
+  <si>
+    <t>ECKMAN S</t>
+  </si>
+  <si>
+    <t>58.62%</t>
+  </si>
+  <si>
+    <t>31.03%</t>
+  </si>
+  <si>
+    <t>10.34%</t>
+  </si>
+  <si>
     <t>ROGERS K</t>
   </si>
   <si>
@@ -586,6 +655,24 @@
     <t>19.70%</t>
   </si>
   <si>
+    <t>AUGUST J</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>BRIGHTSMITH D</t>
+  </si>
+  <si>
+    <t>82.35%</t>
+  </si>
+  <si>
+    <t>17.65%</t>
+  </si>
+  <si>
     <t>WILLARD M</t>
   </si>
   <si>
@@ -604,13 +691,7 @@
     <t>4.26%</t>
   </si>
   <si>
-    <t>BRIGHTSMITH D</t>
-  </si>
-  <si>
-    <t>82.35%</t>
-  </si>
-  <si>
-    <t>17.65%</t>
+    <t>MILLER M</t>
   </si>
   <si>
     <t>DIESEL A</t>
@@ -622,15 +703,24 @@
     <t>VSCS-953</t>
   </si>
   <si>
-    <t>ECKMAN S</t>
-  </si>
-  <si>
     <t>95.31%</t>
   </si>
   <si>
     <t>4.69%</t>
   </si>
   <si>
+    <t>VSCS-955</t>
+  </si>
+  <si>
+    <t>26.15%</t>
+  </si>
+  <si>
+    <t>47.69%</t>
+  </si>
+  <si>
+    <t>23.85%</t>
+  </si>
+  <si>
     <t>VTMI-647</t>
   </si>
   <si>
@@ -658,13 +748,40 @@
     <t>88.89%</t>
   </si>
   <si>
+    <t>OMRAN M</t>
+  </si>
+  <si>
+    <t>43.75%</t>
+  </si>
+  <si>
+    <t>33.75%</t>
+  </si>
+  <si>
+    <t>16.25%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>3.75%</t>
+  </si>
+  <si>
     <t>VTPB-334</t>
   </si>
   <si>
     <t>REDDY S</t>
   </si>
   <si>
-    <t>20.00%</t>
+    <t>23.08%</t>
+  </si>
+  <si>
+    <t>46.15%</t>
+  </si>
+  <si>
+    <t>26.92%</t>
+  </si>
+  <si>
+    <t>3.85%</t>
   </si>
   <si>
     <t>VTPB-405</t>
@@ -685,9 +802,6 @@
     <t>VTPB-407</t>
   </si>
   <si>
-    <t>OMRAN M</t>
-  </si>
-  <si>
     <t>VTPB-409</t>
   </si>
   <si>
@@ -835,9 +949,6 @@
     <t>VTPP-423</t>
   </si>
   <si>
-    <t>80.00%</t>
-  </si>
-  <si>
     <t>12.28%</t>
   </si>
   <si>
@@ -865,6 +976,21 @@
     <t>3.77%</t>
   </si>
   <si>
+    <t>VTPP-425</t>
+  </si>
+  <si>
+    <t>FAJT V</t>
+  </si>
+  <si>
+    <t>VTPP-427</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
     <t>VTPP-435</t>
   </si>
   <si>
@@ -880,9 +1006,6 @@
     <t>26.67%</t>
   </si>
   <si>
-    <t>10.00%</t>
-  </si>
-  <si>
     <t>10.42%</t>
   </si>
   <si>
@@ -983,9 +1106,6 @@
   </si>
   <si>
     <t>VTPP-925</t>
-  </si>
-  <si>
-    <t>FAJT V</t>
   </si>
   <si>
     <t>97.71%</t>
@@ -1337,7 +1457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2364,16 +2484,16 @@
         <v>131</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3.342</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -2382,50 +2502,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="B102" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" t="n">
-        <v>4</v>
-      </c>
-      <c r="D102" t="s">
-        <v>45</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" t="s">
-        <v>13</v>
-      </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3.9445</v>
-      </c>
-      <c r="D103" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="A103" t="s">
         <v>135</v>
-      </c>
-      <c r="G103" t="s">
-        <v>13</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -2433,13 +2512,13 @@
         <v>136</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>3.882</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -2451,37 +2530,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="B105" t="s">
-        <v>137</v>
-      </c>
-      <c r="C105" t="n">
-        <v>4</v>
-      </c>
-      <c r="D105" t="s">
-        <v>45</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" t="s">
-        <v>13</v>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" t="s">
-        <v>138</v>
+      <c r="B107" t="s">
+        <v>140</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.9445</v>
+      </c>
+      <c r="D107" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" t="s">
+        <v>142</v>
+      </c>
+      <c r="F107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="B108" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C108" t="n">
         <v>4</v>
@@ -2502,57 +2581,139 @@
         <v>13</v>
       </c>
     </row>
+    <row r="109" spans="1:8">
+      <c r="B109" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="110" spans="1:8">
-      <c r="A110" t="s">
-        <v>140</v>
+      <c r="B110" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>45</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="B111" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="C111" t="n">
+        <v>3.9445</v>
+      </c>
+      <c r="D111" t="s">
+        <v>147</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>148</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" t="n">
         <v>4</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D112" t="s">
         <v>45</v>
       </c>
-      <c r="E111" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>141</v>
+      <c r="B113" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="B114" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C114" t="n">
-        <v>3.97</v>
+        <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="E114" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -2560,24 +2721,24 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="B117" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C117" t="n">
-        <v>2.885</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="E117" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
         <v>13</v>
@@ -2588,24 +2749,24 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="B120" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="C120" t="n">
-        <v>3.656</v>
+        <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="E120" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="F120" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
@@ -2616,80 +2777,80 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="B123" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C123" t="n">
-        <v>3.092</v>
+        <v>3.97</v>
       </c>
       <c r="D123" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E123" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="F123" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="G123" t="s">
         <v>119</v>
       </c>
       <c r="H123" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="B126" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="D126" t="s">
         <v>160</v>
       </c>
-      <c r="C126" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>161</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>162</v>
       </c>
-      <c r="F126" t="s">
-        <v>163</v>
-      </c>
       <c r="G126" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.656</v>
+      </c>
+      <c r="D129" t="s">
+        <v>165</v>
+      </c>
+      <c r="E129" t="s">
+        <v>166</v>
+      </c>
+      <c r="F129" t="s">
         <v>167</v>
-      </c>
-      <c r="C129" t="n">
-        <v>3.682</v>
-      </c>
-      <c r="D129" t="s">
-        <v>168</v>
-      </c>
-      <c r="E129" t="s">
-        <v>169</v>
-      </c>
-      <c r="F129" t="s">
-        <v>170</v>
       </c>
       <c r="G129" t="s">
         <v>13</v>
@@ -2700,80 +2861,80 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
+        <v>169</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3.092</v>
+      </c>
+      <c r="D132" t="s">
+        <v>170</v>
+      </c>
+      <c r="E132" t="s">
+        <v>171</v>
+      </c>
+      <c r="F132" t="s">
         <v>172</v>
       </c>
-      <c r="C132" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="D132" t="s">
-        <v>173</v>
-      </c>
-      <c r="E132" t="s">
-        <v>165</v>
-      </c>
-      <c r="F132" t="s">
-        <v>165</v>
-      </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="B135" t="s">
+        <v>174</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="D135" t="s">
         <v>175</v>
       </c>
-      <c r="C135" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>176</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>177</v>
       </c>
-      <c r="F135" t="s">
-        <v>13</v>
-      </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="H135" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="B138" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C138" t="n">
-        <v>4</v>
+        <v>3.682</v>
       </c>
       <c r="D138" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="E138" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
@@ -2784,24 +2945,24 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="B141" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C141" t="n">
-        <v>4</v>
+        <v>3.977</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="E141" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="G141" t="s">
         <v>13</v>
@@ -2810,64 +2971,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
-      <c r="B142" t="s">
-        <v>182</v>
-      </c>
-      <c r="C142" t="n">
-        <v>4</v>
-      </c>
-      <c r="D142" t="s">
-        <v>45</v>
-      </c>
-      <c r="E142" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="143" spans="1:8">
-      <c r="B143" t="s">
-        <v>183</v>
-      </c>
-      <c r="C143" t="n">
-        <v>3.603</v>
-      </c>
-      <c r="D143" t="s">
-        <v>184</v>
-      </c>
-      <c r="E143" t="s">
-        <v>185</v>
-      </c>
-      <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" t="s">
-        <v>13</v>
+      <c r="A143" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="B144" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D144" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
@@ -2879,55 +2999,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
-      <c r="B145" t="s">
-        <v>187</v>
-      </c>
-      <c r="C145" t="n">
-        <v>3.8823</v>
-      </c>
-      <c r="D145" t="s">
-        <v>188</v>
-      </c>
-      <c r="E145" t="s">
-        <v>189</v>
-      </c>
-      <c r="F145" t="s">
-        <v>13</v>
-      </c>
-      <c r="G145" t="s">
-        <v>13</v>
-      </c>
-      <c r="H145" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="146" spans="1:8">
-      <c r="B146" t="s">
-        <v>190</v>
-      </c>
-      <c r="C146" t="n">
-        <v>4</v>
-      </c>
-      <c r="D146" t="s">
-        <v>45</v>
-      </c>
-      <c r="E146" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" t="s">
-        <v>13</v>
+      <c r="A146" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="B147" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C147" t="n">
         <v>4</v>
@@ -2948,64 +3027,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
-      <c r="B148" t="s">
-        <v>192</v>
-      </c>
-      <c r="C148" t="n">
-        <v>3.938</v>
-      </c>
-      <c r="D148" t="s">
-        <v>41</v>
-      </c>
-      <c r="E148" t="s">
-        <v>42</v>
-      </c>
-      <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="149" spans="1:8">
-      <c r="B149" t="s">
-        <v>193</v>
-      </c>
-      <c r="C149" t="n">
-        <v>3.9615</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="A149" t="s">
         <v>194</v>
-      </c>
-      <c r="E149" t="s">
-        <v>195</v>
-      </c>
-      <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="B150" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C150" t="n">
-        <v>3.824</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="E150" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="F150" t="s">
         <v>13</v>
@@ -3019,44 +3057,85 @@
     </row>
     <row r="151" spans="1:8">
       <c r="B151" t="s">
+        <v>196</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4</v>
+      </c>
+      <c r="D151" t="s">
+        <v>45</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="B152" t="s">
+        <v>197</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="D152" t="s">
+        <v>198</v>
+      </c>
+      <c r="E152" t="s">
         <v>199</v>
       </c>
-      <c r="C151" t="n">
-        <v>3.956</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="B153" t="s">
         <v>200</v>
       </c>
-      <c r="E151" t="s">
-        <v>38</v>
-      </c>
-      <c r="F151" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" t="s">
+      <c r="C153" t="n">
+        <v>3.603</v>
+      </c>
+      <c r="D153" t="s">
         <v>201</v>
+      </c>
+      <c r="E153" t="s">
+        <v>202</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="B154" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C154" t="n">
-        <v>3.953</v>
+        <v>3.8525</v>
       </c>
       <c r="D154" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E154" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F154" t="s">
         <v>13</v>
@@ -3068,48 +3147,130 @@
         <v>13</v>
       </c>
     </row>
+    <row r="155" spans="1:8">
+      <c r="B155" t="s">
+        <v>206</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.483</v>
+      </c>
+      <c r="D155" t="s">
+        <v>207</v>
+      </c>
+      <c r="E155" t="s">
+        <v>208</v>
+      </c>
+      <c r="F155" t="s">
+        <v>209</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="156" spans="1:8">
-      <c r="A156" t="s">
-        <v>205</v>
+      <c r="B156" t="s">
+        <v>210</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.8823</v>
+      </c>
+      <c r="D156" t="s">
+        <v>211</v>
+      </c>
+      <c r="E156" t="s">
+        <v>212</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>13</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="B157" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C157" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>214</v>
+      </c>
+      <c r="E157" t="s">
+        <v>215</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="B158" t="s">
+        <v>216</v>
+      </c>
+      <c r="C158" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="D158" t="s">
+        <v>217</v>
+      </c>
+      <c r="E158" t="s">
+        <v>218</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="B159" t="s">
+        <v>219</v>
+      </c>
+      <c r="C159" t="n">
         <v>4</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D159" t="s">
         <v>45</v>
       </c>
-      <c r="E157" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" t="s">
-        <v>13</v>
-      </c>
-      <c r="G157" t="s">
-        <v>13</v>
-      </c>
-      <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" t="s">
-        <v>207</v>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="B160" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C160" t="n">
-        <v>3.914</v>
+        <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
@@ -3118,414 +3279,455 @@
         <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="161" spans="1:8">
+      <c r="B161" t="s">
+        <v>221</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3.938</v>
+      </c>
+      <c r="D161" t="s">
+        <v>41</v>
+      </c>
+      <c r="E161" t="s">
+        <v>42</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="162" spans="1:8">
-      <c r="A162" t="s">
-        <v>211</v>
+      <c r="B162" t="s">
+        <v>222</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.9615</v>
+      </c>
+      <c r="D162" t="s">
+        <v>223</v>
+      </c>
+      <c r="E162" t="s">
+        <v>224</v>
+      </c>
+      <c r="F162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="B163" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="C163" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>45</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="B164" t="s">
+        <v>226</v>
+      </c>
+      <c r="C164" t="n">
+        <v>3.956</v>
+      </c>
+      <c r="D164" t="s">
+        <v>227</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="B167" t="s">
+        <v>206</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="D167" t="s">
+        <v>229</v>
+      </c>
+      <c r="E167" t="s">
+        <v>230</v>
+      </c>
+      <c r="F167" t="s">
+        <v>13</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="D170" t="s">
+        <v>232</v>
+      </c>
+      <c r="E170" t="s">
+        <v>233</v>
+      </c>
+      <c r="F170" t="s">
+        <v>234</v>
+      </c>
+      <c r="G170" t="s">
+        <v>178</v>
+      </c>
+      <c r="H170" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" t="s">
+        <v>236</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>45</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>238</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3.914</v>
+      </c>
+      <c r="D176" t="s">
+        <v>239</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>240</v>
+      </c>
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>242</v>
+      </c>
+      <c r="C179" t="n">
         <v>3.889</v>
       </c>
-      <c r="D163" t="s">
-        <v>213</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="D179" t="s">
+        <v>243</v>
+      </c>
+      <c r="E179" t="s">
         <v>16</v>
       </c>
-      <c r="F163" t="s">
-        <v>13</v>
-      </c>
-      <c r="G163" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="B166" t="s">
-        <v>215</v>
-      </c>
-      <c r="C166" t="n">
-        <v>3</v>
-      </c>
-      <c r="D166" t="s">
-        <v>216</v>
-      </c>
-      <c r="E166" t="s">
-        <v>176</v>
-      </c>
-      <c r="F166" t="s">
-        <v>216</v>
-      </c>
-      <c r="G166" t="s">
-        <v>13</v>
-      </c>
-      <c r="H166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="B169" t="s">
-        <v>218</v>
-      </c>
-      <c r="C169" t="n">
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="B180" t="s">
+        <v>244</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="D180" t="s">
+        <v>245</v>
+      </c>
+      <c r="E180" t="s">
+        <v>246</v>
+      </c>
+      <c r="F180" t="s">
+        <v>247</v>
+      </c>
+      <c r="G180" t="s">
+        <v>248</v>
+      </c>
+      <c r="H180" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="B183" t="s">
+        <v>251</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="D183" t="s">
+        <v>252</v>
+      </c>
+      <c r="E183" t="s">
+        <v>253</v>
+      </c>
+      <c r="F183" t="s">
+        <v>254</v>
+      </c>
+      <c r="G183" t="s">
+        <v>255</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="B186" t="s">
+        <v>257</v>
+      </c>
+      <c r="C186" t="n">
         <v>3.7508</v>
       </c>
-      <c r="D169" t="s">
-        <v>219</v>
-      </c>
-      <c r="E169" t="s">
-        <v>220</v>
-      </c>
-      <c r="F169" t="s">
-        <v>221</v>
-      </c>
-      <c r="G169" t="s">
-        <v>221</v>
-      </c>
-      <c r="H169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="B172" t="s">
-        <v>223</v>
-      </c>
-      <c r="C172" t="n">
+      <c r="D186" t="s">
+        <v>258</v>
+      </c>
+      <c r="E186" t="s">
+        <v>259</v>
+      </c>
+      <c r="F186" t="s">
+        <v>260</v>
+      </c>
+      <c r="G186" t="s">
+        <v>260</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="B189" t="s">
+        <v>244</v>
+      </c>
+      <c r="C189" t="n">
         <v>4</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D189" t="s">
         <v>45</v>
       </c>
-      <c r="E172" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" t="s">
-        <v>13</v>
-      </c>
-      <c r="H172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="B175" t="s">
-        <v>225</v>
-      </c>
-      <c r="C175" t="n">
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="B192" t="s">
+        <v>263</v>
+      </c>
+      <c r="C192" t="n">
         <v>3.217</v>
       </c>
-      <c r="D175" t="s">
-        <v>226</v>
-      </c>
-      <c r="E175" t="s">
-        <v>227</v>
-      </c>
-      <c r="F175" t="s">
-        <v>228</v>
-      </c>
-      <c r="G175" t="s">
-        <v>13</v>
-      </c>
-      <c r="H175" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="B178" t="s">
-        <v>231</v>
-      </c>
-      <c r="C178" t="n">
+      <c r="D192" t="s">
+        <v>264</v>
+      </c>
+      <c r="E192" t="s">
+        <v>265</v>
+      </c>
+      <c r="F192" t="s">
+        <v>266</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
+        <v>269</v>
+      </c>
+      <c r="C195" t="n">
         <v>3.439</v>
       </c>
-      <c r="D178" t="s">
-        <v>232</v>
-      </c>
-      <c r="E178" t="s">
-        <v>233</v>
-      </c>
-      <c r="F178" t="s">
-        <v>234</v>
-      </c>
-      <c r="G178" t="s">
-        <v>13</v>
-      </c>
-      <c r="H178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>218</v>
-      </c>
-      <c r="C181" t="n">
+      <c r="D195" t="s">
+        <v>270</v>
+      </c>
+      <c r="E195" t="s">
+        <v>271</v>
+      </c>
+      <c r="F195" t="s">
+        <v>272</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="B198" t="s">
+        <v>257</v>
+      </c>
+      <c r="C198" t="n">
         <v>4</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D198" t="s">
         <v>45</v>
       </c>
-      <c r="E181" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="B184" t="s">
-        <v>237</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.182</v>
-      </c>
-      <c r="D184" t="s">
-        <v>238</v>
-      </c>
-      <c r="E184" t="s">
-        <v>239</v>
-      </c>
-      <c r="F184" t="s">
-        <v>122</v>
-      </c>
-      <c r="G184" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>241</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.421</v>
-      </c>
-      <c r="D187" t="s">
-        <v>242</v>
-      </c>
-      <c r="E187" t="s">
-        <v>243</v>
-      </c>
-      <c r="F187" t="s">
-        <v>244</v>
-      </c>
-      <c r="G187" t="s">
-        <v>245</v>
-      </c>
-      <c r="H187" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>248</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D190" t="s">
-        <v>249</v>
-      </c>
-      <c r="E190" t="s">
-        <v>65</v>
-      </c>
-      <c r="F190" t="s">
-        <v>250</v>
-      </c>
-      <c r="G190" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="B193" t="s">
-        <v>212</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.405</v>
-      </c>
-      <c r="D193" t="s">
-        <v>252</v>
-      </c>
-      <c r="E193" t="s">
-        <v>253</v>
-      </c>
-      <c r="F193" t="s">
-        <v>254</v>
-      </c>
-      <c r="G193" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="B196" t="s">
-        <v>256</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.183</v>
-      </c>
-      <c r="D196" t="s">
-        <v>257</v>
-      </c>
-      <c r="E196" t="s">
-        <v>157</v>
-      </c>
-      <c r="F196" t="s">
-        <v>258</v>
-      </c>
-      <c r="G196" t="s">
-        <v>119</v>
-      </c>
-      <c r="H196" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="B199" t="s">
-        <v>179</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4</v>
-      </c>
-      <c r="D199" t="s">
-        <v>45</v>
-      </c>
-      <c r="E199" t="s">
-        <v>13</v>
-      </c>
-      <c r="F199" t="s">
-        <v>13</v>
-      </c>
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="s">
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>260</v>
-      </c>
-      <c r="C200" t="n">
-        <v>4</v>
-      </c>
-      <c r="D200" t="s">
-        <v>45</v>
-      </c>
-      <c r="E200" t="s">
-        <v>13</v>
-      </c>
-      <c r="F200" t="s">
-        <v>13</v>
-      </c>
-      <c r="G200" t="s">
-        <v>13</v>
-      </c>
-      <c r="H200" t="s">
-        <v>13</v>
+      <c r="A200" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="B201" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C201" t="n">
-        <v>3.947</v>
+        <v>3.182</v>
       </c>
       <c r="D201" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E201" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F201" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="G201" t="s">
         <v>13</v>
@@ -3534,182 +3736,141 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
-      <c r="B202" t="s">
-        <v>264</v>
-      </c>
-      <c r="C202" t="n">
-        <v>4</v>
-      </c>
-      <c r="D202" t="s">
-        <v>45</v>
-      </c>
-      <c r="E202" t="s">
-        <v>13</v>
-      </c>
-      <c r="F202" t="s">
-        <v>13</v>
-      </c>
-      <c r="G202" t="s">
-        <v>13</v>
-      </c>
-      <c r="H202" t="s">
-        <v>13</v>
+    <row r="203" spans="1:8">
+      <c r="A203" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="B205" t="s">
-        <v>142</v>
-      </c>
-      <c r="C205" t="n">
-        <v>3</v>
-      </c>
-      <c r="D205" t="s">
-        <v>266</v>
-      </c>
-      <c r="E205" t="s">
-        <v>267</v>
-      </c>
-      <c r="F205" t="s">
-        <v>268</v>
-      </c>
-      <c r="G205" t="s">
-        <v>268</v>
-      </c>
-      <c r="H205" t="s">
-        <v>269</v>
+      <c r="B204" t="s">
+        <v>279</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3.421</v>
+      </c>
+      <c r="D204" t="s">
+        <v>280</v>
+      </c>
+      <c r="E204" t="s">
+        <v>281</v>
+      </c>
+      <c r="F204" t="s">
+        <v>282</v>
+      </c>
+      <c r="G204" t="s">
+        <v>283</v>
+      </c>
+      <c r="H204" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="B208" t="s">
-        <v>271</v>
-      </c>
-      <c r="C208" t="n">
-        <v>4</v>
-      </c>
-      <c r="D208" t="s">
-        <v>45</v>
-      </c>
-      <c r="E208" t="s">
-        <v>13</v>
-      </c>
-      <c r="F208" t="s">
-        <v>13</v>
-      </c>
-      <c r="G208" t="s">
-        <v>13</v>
-      </c>
-      <c r="H208" t="s">
-        <v>13</v>
+      <c r="B207" t="s">
+        <v>286</v>
+      </c>
+      <c r="C207" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D207" t="s">
+        <v>287</v>
+      </c>
+      <c r="E207" t="s">
+        <v>65</v>
+      </c>
+      <c r="F207" t="s">
+        <v>288</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="B211" t="s">
-        <v>271</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D211" t="s">
-        <v>273</v>
-      </c>
-      <c r="E211" t="s">
-        <v>216</v>
-      </c>
-      <c r="F211" t="s">
-        <v>13</v>
-      </c>
-      <c r="G211" t="s">
-        <v>13</v>
-      </c>
-      <c r="H211" t="s">
+      <c r="B210" t="s">
+        <v>242</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.405</v>
+      </c>
+      <c r="D210" t="s">
+        <v>290</v>
+      </c>
+      <c r="E210" t="s">
+        <v>291</v>
+      </c>
+      <c r="F210" t="s">
+        <v>292</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="B212" t="s">
-        <v>14</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.333</v>
-      </c>
-      <c r="D212" t="s">
-        <v>274</v>
-      </c>
-      <c r="E212" t="s">
-        <v>233</v>
-      </c>
-      <c r="F212" t="s">
-        <v>275</v>
-      </c>
-      <c r="G212" t="s">
-        <v>276</v>
-      </c>
-      <c r="H212" t="s">
-        <v>263</v>
+      <c r="A212" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="B213" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C213" t="n">
-        <v>2.3965</v>
+        <v>3.183</v>
       </c>
       <c r="D213" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="E213" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="F213" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G213" t="s">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="H213" t="s">
-        <v>282</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="B216" t="s">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="C216" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="E216" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="F216" t="s">
-        <v>287</v>
+        <v>13</v>
       </c>
       <c r="G216" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="H216" t="s">
         <v>13</v>
@@ -3717,22 +3878,22 @@
     </row>
     <row r="217" spans="1:8">
       <c r="B217" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="C217" t="n">
-        <v>2.646</v>
+        <v>4</v>
       </c>
       <c r="D217" t="s">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="E217" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F217" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H217" t="s">
         <v>13</v>
@@ -3740,19 +3901,19 @@
     </row>
     <row r="218" spans="1:8">
       <c r="B218" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="C218" t="n">
-        <v>3.25</v>
+        <v>3.947</v>
       </c>
       <c r="D218" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E218" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F218" t="s">
-        <v>291</v>
+        <v>13</v>
       </c>
       <c r="G218" t="s">
         <v>13</v>
@@ -3761,65 +3922,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
-      <c r="A220" t="s">
-        <v>292</v>
+    <row r="219" spans="1:8">
+      <c r="B219" t="s">
+        <v>302</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+      <c r="D219" t="s">
+        <v>45</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="B221" t="s">
-        <v>293</v>
-      </c>
-      <c r="C221" t="n">
+      <c r="A221" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="B222" t="s">
+        <v>156</v>
+      </c>
+      <c r="C222" t="n">
         <v>3</v>
       </c>
-      <c r="D221" t="s">
-        <v>177</v>
-      </c>
-      <c r="E221" t="s">
-        <v>216</v>
-      </c>
-      <c r="F221" t="s">
-        <v>177</v>
-      </c>
-      <c r="G221" t="s">
-        <v>13</v>
-      </c>
-      <c r="H221" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" t="s">
-        <v>294</v>
+      <c r="D222" t="s">
+        <v>304</v>
+      </c>
+      <c r="E222" t="s">
+        <v>305</v>
+      </c>
+      <c r="F222" t="s">
+        <v>306</v>
+      </c>
+      <c r="G222" t="s">
+        <v>306</v>
+      </c>
+      <c r="H222" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="B224" t="s">
-        <v>271</v>
-      </c>
-      <c r="C224" t="n">
-        <v>4</v>
-      </c>
-      <c r="D224" t="s">
-        <v>45</v>
-      </c>
-      <c r="E224" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" t="s">
-        <v>13</v>
-      </c>
-      <c r="G224" t="s">
-        <v>13</v>
-      </c>
-      <c r="H224" t="s">
-        <v>13</v>
+      <c r="A224" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="B225" t="s">
-        <v>142</v>
+        <v>309</v>
       </c>
       <c r="C225" t="n">
         <v>4</v>
@@ -3842,21 +4003,21 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="B228" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C228" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D228" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="E228" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="F228" t="s">
         <v>13</v>
@@ -3868,339 +4029,622 @@
         <v>13</v>
       </c>
     </row>
+    <row r="229" spans="1:8">
+      <c r="B229" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="D229" t="s">
+        <v>311</v>
+      </c>
+      <c r="E229" t="s">
+        <v>271</v>
+      </c>
+      <c r="F229" t="s">
+        <v>312</v>
+      </c>
+      <c r="G229" t="s">
+        <v>313</v>
+      </c>
+      <c r="H229" t="s">
+        <v>301</v>
+      </c>
+    </row>
     <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="B231" t="s">
-        <v>298</v>
-      </c>
-      <c r="C231" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D231" t="s">
-        <v>21</v>
-      </c>
-      <c r="E231" t="s">
-        <v>79</v>
-      </c>
-      <c r="F231" t="s">
-        <v>299</v>
-      </c>
-      <c r="G231" t="s">
-        <v>299</v>
-      </c>
-      <c r="H231" t="s">
-        <v>299</v>
+      <c r="B230" t="s">
+        <v>314</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2.3965</v>
+      </c>
+      <c r="D230" t="s">
+        <v>315</v>
+      </c>
+      <c r="E230" t="s">
+        <v>316</v>
+      </c>
+      <c r="F230" t="s">
+        <v>317</v>
+      </c>
+      <c r="G230" t="s">
+        <v>318</v>
+      </c>
+      <c r="H230" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>301</v>
-      </c>
-      <c r="C234" t="n">
-        <v>3.143</v>
-      </c>
-      <c r="D234" t="s">
-        <v>302</v>
-      </c>
-      <c r="E234" t="s">
-        <v>303</v>
-      </c>
-      <c r="F234" t="s">
-        <v>303</v>
-      </c>
-      <c r="G234" t="s">
-        <v>13</v>
-      </c>
-      <c r="H234" t="s">
-        <v>13</v>
+      <c r="B233" t="s">
+        <v>321</v>
+      </c>
+      <c r="C233" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D233" t="s">
+        <v>190</v>
+      </c>
+      <c r="E233" t="s">
+        <v>191</v>
+      </c>
+      <c r="F233" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="B237" t="s">
-        <v>305</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D237" t="s">
-        <v>79</v>
-      </c>
-      <c r="E237" t="s">
-        <v>306</v>
-      </c>
-      <c r="F237" t="s">
-        <v>216</v>
-      </c>
-      <c r="G237" t="s">
-        <v>13</v>
-      </c>
-      <c r="H237" t="s">
-        <v>13</v>
+      <c r="B236" t="s">
+        <v>314</v>
+      </c>
+      <c r="C236" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D236" t="s">
+        <v>323</v>
+      </c>
+      <c r="E236" t="s">
+        <v>215</v>
+      </c>
+      <c r="F236" t="s">
+        <v>324</v>
+      </c>
+      <c r="G236" t="s">
+        <v>13</v>
+      </c>
+      <c r="H236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>307</v>
+      <c r="B239" t="s">
+        <v>326</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D239" t="s">
+        <v>327</v>
+      </c>
+      <c r="E239" t="s">
+        <v>328</v>
+      </c>
+      <c r="F239" t="s">
+        <v>329</v>
+      </c>
+      <c r="G239" t="s">
+        <v>324</v>
+      </c>
+      <c r="H239" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="B240" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C240" t="n">
+        <v>2.646</v>
+      </c>
+      <c r="D240" t="s">
+        <v>330</v>
+      </c>
+      <c r="E240" t="s">
+        <v>79</v>
+      </c>
+      <c r="F240" t="s">
+        <v>82</v>
+      </c>
+      <c r="G240" t="s">
+        <v>42</v>
+      </c>
+      <c r="H240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="B241" t="s">
+        <v>309</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D241" t="s">
+        <v>331</v>
+      </c>
+      <c r="E241" t="s">
+        <v>331</v>
+      </c>
+      <c r="F241" t="s">
+        <v>332</v>
+      </c>
+      <c r="G241" t="s">
+        <v>13</v>
+      </c>
+      <c r="H241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="B244" t="s">
+        <v>334</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3</v>
+      </c>
+      <c r="D244" t="s">
+        <v>191</v>
+      </c>
+      <c r="E244" t="s">
+        <v>215</v>
+      </c>
+      <c r="F244" t="s">
+        <v>191</v>
+      </c>
+      <c r="G244" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>309</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4</v>
+      </c>
+      <c r="D247" t="s">
+        <v>45</v>
+      </c>
+      <c r="E247" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
+        <v>13</v>
+      </c>
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="B248" t="s">
+        <v>156</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4</v>
+      </c>
+      <c r="D248" t="s">
+        <v>45</v>
+      </c>
+      <c r="E248" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
+        <v>13</v>
+      </c>
+      <c r="G248" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="B251" t="s">
+        <v>337</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4</v>
+      </c>
+      <c r="D251" t="s">
+        <v>45</v>
+      </c>
+      <c r="E251" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" t="s">
+        <v>13</v>
+      </c>
+      <c r="H251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="B254" t="s">
+        <v>339</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D254" t="s">
+        <v>21</v>
+      </c>
+      <c r="E254" t="s">
+        <v>79</v>
+      </c>
+      <c r="F254" t="s">
+        <v>340</v>
+      </c>
+      <c r="G254" t="s">
+        <v>340</v>
+      </c>
+      <c r="H254" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="B257" t="s">
+        <v>342</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="D257" t="s">
+        <v>343</v>
+      </c>
+      <c r="E257" t="s">
+        <v>344</v>
+      </c>
+      <c r="F257" t="s">
+        <v>344</v>
+      </c>
+      <c r="G257" t="s">
+        <v>13</v>
+      </c>
+      <c r="H257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="B260" t="s">
+        <v>346</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D260" t="s">
+        <v>79</v>
+      </c>
+      <c r="E260" t="s">
+        <v>347</v>
+      </c>
+      <c r="F260" t="s">
+        <v>215</v>
+      </c>
+      <c r="G260" t="s">
+        <v>13</v>
+      </c>
+      <c r="H260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="B263" t="s">
+        <v>334</v>
+      </c>
+      <c r="C263" t="n">
         <v>3.438</v>
       </c>
-      <c r="D240" t="s">
-        <v>308</v>
-      </c>
-      <c r="E240" t="s">
+      <c r="D263" t="s">
+        <v>349</v>
+      </c>
+      <c r="E263" t="s">
         <v>73</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F263" t="s">
         <v>74</v>
       </c>
-      <c r="G240" t="s">
-        <v>13</v>
-      </c>
-      <c r="H240" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="B243" t="s">
-        <v>310</v>
-      </c>
-      <c r="C243" t="n">
+      <c r="G263" t="s">
+        <v>13</v>
+      </c>
+      <c r="H263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="B266" t="s">
+        <v>351</v>
+      </c>
+      <c r="C266" t="n">
         <v>4</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D266" t="s">
         <v>45</v>
       </c>
-      <c r="E243" t="s">
-        <v>13</v>
-      </c>
-      <c r="F243" t="s">
-        <v>13</v>
-      </c>
-      <c r="G243" t="s">
-        <v>13</v>
-      </c>
-      <c r="H243" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="B246" t="s">
-        <v>312</v>
-      </c>
-      <c r="C246" t="n">
+      <c r="E266" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266" t="s">
+        <v>13</v>
+      </c>
+      <c r="H266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="B269" t="s">
+        <v>353</v>
+      </c>
+      <c r="C269" t="n">
         <v>2.75</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D269" t="s">
         <v>74</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E269" t="s">
         <v>79</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F269" t="s">
         <v>26</v>
       </c>
-      <c r="G246" t="s">
-        <v>13</v>
-      </c>
-      <c r="H246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="B249" t="s">
-        <v>314</v>
-      </c>
-      <c r="C249" t="n">
+      <c r="G269" t="s">
+        <v>13</v>
+      </c>
+      <c r="H269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="B272" t="s">
+        <v>355</v>
+      </c>
+      <c r="C272" t="n">
         <v>3.778</v>
       </c>
-      <c r="D249" t="s">
-        <v>315</v>
-      </c>
-      <c r="E249" t="s">
-        <v>316</v>
-      </c>
-      <c r="F249" t="s">
-        <v>13</v>
-      </c>
-      <c r="G249" t="s">
-        <v>13</v>
-      </c>
-      <c r="H249" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="B252" t="s">
-        <v>296</v>
-      </c>
-      <c r="C252" t="n">
+      <c r="D272" t="s">
+        <v>356</v>
+      </c>
+      <c r="E272" t="s">
+        <v>357</v>
+      </c>
+      <c r="F272" t="s">
+        <v>13</v>
+      </c>
+      <c r="G272" t="s">
+        <v>13</v>
+      </c>
+      <c r="H272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>337</v>
+      </c>
+      <c r="C275" t="n">
         <v>3.933</v>
       </c>
-      <c r="D252" t="s">
-        <v>318</v>
-      </c>
-      <c r="E252" t="s">
-        <v>285</v>
-      </c>
-      <c r="F252" t="s">
-        <v>13</v>
-      </c>
-      <c r="G252" t="s">
-        <v>13</v>
-      </c>
-      <c r="H252" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="B255" t="s">
-        <v>301</v>
-      </c>
-      <c r="C255" t="n">
+      <c r="D275" t="s">
+        <v>359</v>
+      </c>
+      <c r="E275" t="s">
+        <v>327</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" t="s">
+        <v>13</v>
+      </c>
+      <c r="H275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="B278" t="s">
+        <v>342</v>
+      </c>
+      <c r="C278" t="n">
         <v>3.189</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D278" t="s">
         <v>121</v>
       </c>
-      <c r="E255" t="s">
-        <v>320</v>
-      </c>
-      <c r="F255" t="s">
+      <c r="E278" t="s">
+        <v>361</v>
+      </c>
+      <c r="F278" t="s">
+        <v>362</v>
+      </c>
+      <c r="G278" t="s">
+        <v>13</v>
+      </c>
+      <c r="H278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="B281" t="s">
         <v>321</v>
       </c>
-      <c r="G255" t="s">
-        <v>13</v>
-      </c>
-      <c r="H255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="B258" t="s">
-        <v>323</v>
-      </c>
-      <c r="C258" t="n">
+      <c r="C281" t="n">
         <v>3.977</v>
       </c>
-      <c r="D258" t="s">
-        <v>324</v>
-      </c>
-      <c r="E258" t="s">
-        <v>254</v>
-      </c>
-      <c r="F258" t="s">
-        <v>13</v>
-      </c>
-      <c r="G258" t="s">
-        <v>13</v>
-      </c>
-      <c r="H258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="B261" t="s">
-        <v>326</v>
-      </c>
-      <c r="C261" t="n">
+      <c r="D281" t="s">
+        <v>364</v>
+      </c>
+      <c r="E281" t="s">
+        <v>292</v>
+      </c>
+      <c r="F281" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" t="s">
+        <v>13</v>
+      </c>
+      <c r="H281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="B284" t="s">
+        <v>366</v>
+      </c>
+      <c r="C284" t="n">
         <v>2.931</v>
       </c>
-      <c r="D261" t="s">
-        <v>158</v>
-      </c>
-      <c r="E261" t="s">
-        <v>151</v>
-      </c>
-      <c r="F261" t="s">
-        <v>327</v>
-      </c>
-      <c r="G261" t="s">
-        <v>153</v>
-      </c>
-      <c r="H261" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="B264" t="s">
-        <v>326</v>
-      </c>
-      <c r="C264" t="n">
+      <c r="D284" t="s">
+        <v>172</v>
+      </c>
+      <c r="E284" t="s">
+        <v>165</v>
+      </c>
+      <c r="F284" t="s">
+        <v>367</v>
+      </c>
+      <c r="G284" t="s">
+        <v>167</v>
+      </c>
+      <c r="H284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="B287" t="s">
+        <v>366</v>
+      </c>
+      <c r="C287" t="n">
         <v>4</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D287" t="s">
         <v>45</v>
       </c>
-      <c r="E264" t="s">
-        <v>13</v>
-      </c>
-      <c r="F264" t="s">
-        <v>13</v>
-      </c>
-      <c r="G264" t="s">
-        <v>13</v>
-      </c>
-      <c r="H264" t="s">
+      <c r="E287" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" t="s">
+        <v>13</v>
+      </c>
+      <c r="G287" t="s">
+        <v>13</v>
+      </c>
+      <c r="H287" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 VM.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 VM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BIMS-101</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>3.57%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>BIMS-320</t>
   </si>
   <si>
@@ -166,6 +172,9 @@
     <t>10.71%</t>
   </si>
   <si>
+    <t>1.75%</t>
+  </si>
+  <si>
     <t>VIBS-305</t>
   </si>
   <si>
@@ -187,6 +196,9 @@
     <t>1.50%</t>
   </si>
   <si>
+    <t>4.32%</t>
+  </si>
+  <si>
     <t>VIBS-404</t>
   </si>
   <si>
@@ -241,6 +253,9 @@
     <t>12.50%</t>
   </si>
   <si>
+    <t>3.03%</t>
+  </si>
+  <si>
     <t>VIBS-489</t>
   </si>
   <si>
@@ -592,6 +607,9 @@
     <t>40.00%</t>
   </si>
   <si>
+    <t>16.67%</t>
+  </si>
+  <si>
     <t>VPAT-653</t>
   </si>
   <si>
@@ -766,6 +784,9 @@
     <t>3.75%</t>
   </si>
   <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>VTPB-334</t>
   </si>
   <si>
@@ -820,6 +841,9 @@
     <t>2.17%</t>
   </si>
   <si>
+    <t>9.80%</t>
+  </si>
+  <si>
     <t>VTPB-438</t>
   </si>
   <si>
@@ -850,6 +874,9 @@
     <t>63.64%</t>
   </si>
   <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>VTPB-489</t>
   </si>
   <si>
@@ -958,6 +985,9 @@
     <t>19.30%</t>
   </si>
   <si>
+    <t>1.72%</t>
+  </si>
+  <si>
     <t>HERMAN J</t>
   </si>
   <si>
@@ -976,6 +1006,9 @@
     <t>3.77%</t>
   </si>
   <si>
+    <t>5.36%</t>
+  </si>
+  <si>
     <t>VTPP-425</t>
   </si>
   <si>
@@ -997,24 +1030,21 @@
     <t>DONGAONKAR R</t>
   </si>
   <si>
-    <t>6.67%</t>
-  </si>
-  <si>
     <t>56.67%</t>
   </si>
   <si>
     <t>26.67%</t>
   </si>
   <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>10.42%</t>
   </si>
   <si>
     <t>41.67%</t>
   </si>
   <si>
-    <t>16.67%</t>
-  </si>
-  <si>
     <t>VTPP-452</t>
   </si>
   <si>
@@ -1024,6 +1054,9 @@
     <t>VTPP-485</t>
   </si>
   <si>
+    <t>18.18%</t>
+  </si>
+  <si>
     <t>VTPP-489</t>
   </si>
   <si>
@@ -1034,9 +1067,6 @@
   </si>
   <si>
     <t>HEAPS C</t>
-  </si>
-  <si>
-    <t>8.33%</t>
   </si>
   <si>
     <t>VTPP-612</t>
@@ -1158,12 +1188,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1457,15 +1486,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H287"/>
+  <dimension ref="A1:I287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1490,3162 +1519,3522 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.8365</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3.844</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>3.571</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>3.625</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
         <v>2.894</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="n">
         <v>3.435</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" t="n">
         <v>3.938</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C22" t="n">
         <v>3.304</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
         <v>3.1825</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C28" t="n">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n">
         <v>3.923</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C34" t="n">
         <v>3.546</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C37" t="n">
         <v>3.95</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C40" t="n">
         <v>2.838</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C43" t="n">
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C44" t="n">
         <v>3.35</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C47" t="n">
         <v>3.333</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C53" t="n">
         <v>3.857</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C56" t="n">
         <v>3.857</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C59" t="n">
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C62" t="n">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C65" t="n">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C71" t="n">
         <v>3.5</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C74" t="n">
         <v>3.857</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C80" t="n">
         <v>2.712</v>
       </c>
       <c r="D80" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G80" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C83" t="n">
         <v>3.296</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F83" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C86" t="n">
         <v>3.742</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C89" t="n">
         <v>3.794</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E89" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C92" t="n">
         <v>3.454</v>
       </c>
       <c r="D92" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F92" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C98" t="n">
         <v>3.098</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C101" t="n">
         <v>3.342</v>
       </c>
       <c r="D101" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F101" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C104" t="n">
         <v>3.882</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E104" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C107" t="n">
         <v>3.9445</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E107" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C108" t="n">
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C109" t="n">
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C110" t="n">
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C111" t="n">
         <v>3.9445</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C112" t="n">
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C113" t="n">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C114" t="n">
         <v>4</v>
       </c>
       <c r="D114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C117" t="n">
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C120" t="n">
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C123" t="n">
         <v>3.97</v>
       </c>
       <c r="D123" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E123" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C126" t="n">
         <v>2.885</v>
       </c>
       <c r="D126" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E126" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F126" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C129" t="n">
         <v>3.656</v>
       </c>
       <c r="D129" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E129" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F129" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C132" t="n">
         <v>3.092</v>
       </c>
       <c r="D132" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E132" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F132" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G132" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H132" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C135" t="n">
         <v>3.023</v>
       </c>
       <c r="D135" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E135" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F135" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G135" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H135" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C138" t="n">
         <v>3.682</v>
       </c>
       <c r="D138" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E138" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F138" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C141" t="n">
         <v>3.977</v>
       </c>
       <c r="D141" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E141" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="F141" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C144" t="n">
         <v>3.6</v>
       </c>
       <c r="D144" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E144" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C147" t="n">
         <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C150" t="n">
         <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C151" t="n">
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C152" t="n">
         <v>3.976</v>
       </c>
       <c r="D152" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E152" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C153" t="n">
         <v>3.603</v>
       </c>
       <c r="D153" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E153" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C154" t="n">
         <v>3.8525</v>
       </c>
       <c r="D154" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E154" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C155" t="n">
         <v>3.483</v>
       </c>
       <c r="D155" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E155" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F155" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C156" t="n">
         <v>3.8823</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E156" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C157" t="n">
         <v>3.8</v>
       </c>
       <c r="D157" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E157" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C158" t="n">
         <v>3.824</v>
       </c>
       <c r="D158" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E158" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C161" t="n">
         <v>3.938</v>
       </c>
       <c r="D161" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C162" t="n">
         <v>3.9615</v>
       </c>
       <c r="D162" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E162" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C164" t="n">
         <v>3.956</v>
       </c>
       <c r="D164" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C167" t="n">
         <v>3.953</v>
       </c>
       <c r="D167" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E167" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C170" t="n">
         <v>2.969</v>
       </c>
       <c r="D170" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E170" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F170" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G170" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H170" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C176" t="n">
         <v>3.914</v>
       </c>
       <c r="D176" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C179" t="n">
         <v>3.889</v>
       </c>
       <c r="D179" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E179" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C180" t="n">
         <v>3.112</v>
       </c>
       <c r="D180" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E180" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F180" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G180" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H180" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I180" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C183" t="n">
         <v>2.906</v>
       </c>
       <c r="D183" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E183" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F183" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="G183" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H183" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C186" t="n">
         <v>3.7508</v>
       </c>
       <c r="D186" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E186" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F186" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G186" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H186" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C189" t="n">
         <v>4</v>
       </c>
       <c r="D189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C192" t="n">
         <v>3.217</v>
       </c>
       <c r="D192" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="E192" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F192" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>274</v>
+      </c>
+      <c r="I192" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C195" t="n">
         <v>3.439</v>
       </c>
       <c r="D195" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="E195" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F195" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="B198" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C198" t="n">
         <v>4</v>
       </c>
       <c r="D198" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H198" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="B201" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C201" t="n">
         <v>3.182</v>
       </c>
       <c r="D201" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E201" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F201" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H201" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="B204" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C204" t="n">
         <v>3.421</v>
       </c>
       <c r="D204" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E204" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="F204" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="G204" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H204" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="I204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="B207" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C207" t="n">
         <v>3.136</v>
       </c>
       <c r="D207" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="E207" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F207" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="B210" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C210" t="n">
         <v>3.405</v>
       </c>
       <c r="D210" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E210" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F210" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H210" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="B213" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C213" t="n">
         <v>3.183</v>
       </c>
       <c r="D213" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="E213" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F213" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="G213" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H213" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="B216" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C216" t="n">
         <v>4</v>
       </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C217" t="n">
         <v>4</v>
       </c>
       <c r="D217" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C218" t="n">
         <v>3.947</v>
       </c>
       <c r="D218" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E218" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="F218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="B219" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C219" t="n">
         <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H219" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C222" t="n">
         <v>3</v>
       </c>
       <c r="D222" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E222" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F222" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G222" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H222" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="I222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C225" t="n">
         <v>4</v>
       </c>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H225" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C228" t="n">
         <v>3.8</v>
       </c>
       <c r="D228" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E228" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H228" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="B229" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C229" t="n">
         <v>2.333</v>
       </c>
       <c r="D229" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E229" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F229" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="G229" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H229" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="I229" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C230" t="n">
         <v>2.3965</v>
       </c>
       <c r="D230" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E230" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F230" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G230" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="H230" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>329</v>
+      </c>
+      <c r="I230" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="B233" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C233" t="n">
         <v>3.6</v>
       </c>
       <c r="D233" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E233" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H233" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="B236" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C236" t="n">
         <v>3.6</v>
       </c>
       <c r="D236" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="E236" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F236" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="G236" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H236" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="B239" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C239" t="n">
         <v>2.6</v>
       </c>
       <c r="D239" t="s">
-        <v>327</v>
+        <v>24</v>
       </c>
       <c r="E239" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F239" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G239" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="H239" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I239" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C240" t="n">
         <v>2.646</v>
       </c>
       <c r="D240" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="E240" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F240" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H240" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I240" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C241" t="n">
         <v>3.25</v>
       </c>
       <c r="D241" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="E241" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F241" t="s">
-        <v>332</v>
+        <v>197</v>
       </c>
       <c r="G241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H241" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C244" t="n">
         <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E244" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F244" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H244" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I244" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C247" t="n">
         <v>4</v>
       </c>
       <c r="D247" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E247" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F247" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G247" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H247" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I247" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
       <c r="B248" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C248" t="n">
         <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E248" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F248" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G248" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H248" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C251" t="n">
         <v>4</v>
       </c>
       <c r="D251" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H251" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I251" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C254" t="n">
         <v>2.75</v>
       </c>
       <c r="D254" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E254" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F254" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="G254" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="H254" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I254" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C257" t="n">
         <v>3.143</v>
       </c>
       <c r="D257" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E257" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F257" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="G257" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H257" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C260" t="n">
         <v>3.3</v>
       </c>
       <c r="D260" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E260" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F260" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G260" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I260" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C263" t="n">
         <v>3.438</v>
       </c>
       <c r="D263" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E263" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F263" t="s">
+        <v>78</v>
+      </c>
+      <c r="G263" t="s">
+        <v>14</v>
+      </c>
+      <c r="H263" t="s">
+        <v>14</v>
+      </c>
+      <c r="I263" t="s">
         <v>74</v>
       </c>
-      <c r="G263" t="s">
-        <v>13</v>
-      </c>
-      <c r="H263" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C266" t="n">
         <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E266" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F266" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G266" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C269" t="n">
         <v>2.75</v>
       </c>
       <c r="D269" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E269" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F269" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G269" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H269" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I269" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C272" t="n">
         <v>3.778</v>
       </c>
       <c r="D272" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E272" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F272" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H272" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I272" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="C275" t="n">
         <v>3.933</v>
       </c>
       <c r="D275" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E275" t="s">
-        <v>327</v>
+        <v>24</v>
       </c>
       <c r="F275" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G275" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I275" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C278" t="n">
         <v>3.189</v>
       </c>
       <c r="D278" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E278" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F278" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G278" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I278" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="C281" t="n">
         <v>3.977</v>
       </c>
       <c r="D281" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E281" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F281" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G281" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H281" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I281" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C284" t="n">
         <v>2.931</v>
       </c>
       <c r="D284" t="s">
+        <v>177</v>
+      </c>
+      <c r="E284" t="s">
+        <v>170</v>
+      </c>
+      <c r="F284" t="s">
+        <v>377</v>
+      </c>
+      <c r="G284" t="s">
         <v>172</v>
       </c>
-      <c r="E284" t="s">
-        <v>165</v>
-      </c>
-      <c r="F284" t="s">
-        <v>367</v>
-      </c>
-      <c r="G284" t="s">
-        <v>167</v>
-      </c>
       <c r="H284" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C287" t="n">
         <v>4</v>
       </c>
       <c r="D287" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G287" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H287" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I287" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
